--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>679394.43685273</v>
+        <v>675587.2432093526</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33251246.96394891</v>
+        <v>33251246.9639489</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6042890.817568189</v>
+        <v>6042890.817568188</v>
       </c>
     </row>
     <row r="9">
@@ -907,7 +907,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>18.72182491999521</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>10.89100845466794</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="C6" t="n">
-        <v>40.06089812717867</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>40.06089812717867</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>40.06089812717867</v>
+        <v>35.28563907041844</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>35.28563907041895</v>
+        <v>40.06089812717806</v>
       </c>
     </row>
     <row r="7">
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>35.28563907041895</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>40.06089812717867</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="F7" t="n">
-        <v>40.06089812717867</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="H7" t="n">
-        <v>40.06089812717867</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>14.08199598873659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1214,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>37.06736141641883</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F9" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="G9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>41.31500304752735</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>324.0134847759234</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>196.2291113321753</v>
       </c>
     </row>
     <row r="12">
@@ -1533,13 +1533,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>161.8589565407238</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>147.2005861163433</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>134.9377305078424</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>156.7012890994286</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>79.80294453845626</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>138.7434236076974</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>107.2523877183276</v>
       </c>
       <c r="V17" t="n">
-        <v>250.9321946446895</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2016,10 +2016,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>49.34995949258617</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>147.0654096701979</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2086,7 +2086,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>149.6157531058519</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>166.21540129667</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2256,10 +2256,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>132.6978242957215</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>183.4226826923527</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2329,13 +2329,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>99.90393947946937</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>118.7652108328941</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>156.7408525508151</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
@@ -2608,16 +2608,16 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>105.4960396864411</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>118.4600564993217</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>7.315173758383635</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -3037,7 +3037,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -3082,13 +3082,13 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>272.3367308309398</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>309.0332570169318</v>
       </c>
     </row>
     <row r="33">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>156.7012890994288</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>172.6717930165069</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>124.9554984777213</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>102.4939739150801</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>109.5540470185014</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>116.6395830120779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>44.55790309122072</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3678,7 +3678,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>7.722803593220153</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>158.685170298864</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.7079225634043</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>124.9554984777218</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>264.3476845812649</v>
+        <v>126.1536952093196</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,10 +4137,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>138.1300418919269</v>
       </c>
     </row>
   </sheetData>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>117.8215964754205</v>
+        <v>122.7376877631873</v>
       </c>
       <c r="C5" t="n">
-        <v>83.71952769924791</v>
+        <v>88.63561898701464</v>
       </c>
       <c r="D5" t="n">
-        <v>51.85014691409648</v>
+        <v>56.76623820186322</v>
       </c>
       <c r="E5" t="n">
-        <v>22.11580611279572</v>
+        <v>27.03189740056245</v>
       </c>
       <c r="F5" t="n">
-        <v>3.204871850174293</v>
+        <v>3.204871850174245</v>
       </c>
       <c r="G5" t="n">
-        <v>3.204871850174293</v>
+        <v>3.204871850174245</v>
       </c>
       <c r="H5" t="n">
-        <v>3.204871850174293</v>
+        <v>3.204871850174245</v>
       </c>
       <c r="I5" t="n">
-        <v>3.204871850174293</v>
+        <v>3.204871850174245</v>
       </c>
       <c r="J5" t="n">
-        <v>42.86516099608117</v>
+        <v>42.86516099608053</v>
       </c>
       <c r="K5" t="n">
-        <v>82.52545014198805</v>
+        <v>82.52545014198681</v>
       </c>
       <c r="L5" t="n">
-        <v>82.52545014198805</v>
+        <v>120.583303362806</v>
       </c>
       <c r="M5" t="n">
-        <v>82.52545014198805</v>
+        <v>120.583303362806</v>
       </c>
       <c r="N5" t="n">
-        <v>82.52545014198805</v>
+        <v>120.583303362806</v>
       </c>
       <c r="O5" t="n">
-        <v>82.52545014198805</v>
+        <v>120.583303362806</v>
       </c>
       <c r="P5" t="n">
-        <v>122.1857392878949</v>
+        <v>120.583303362806</v>
       </c>
       <c r="Q5" t="n">
-        <v>160.2435925087147</v>
+        <v>120.583303362806</v>
       </c>
       <c r="R5" t="n">
-        <v>160.2435925087147</v>
+        <v>160.2435925087123</v>
       </c>
       <c r="S5" t="n">
-        <v>160.2435925087147</v>
+        <v>160.2435925087123</v>
       </c>
       <c r="T5" t="n">
-        <v>160.2435925087147</v>
+        <v>160.2435925087123</v>
       </c>
       <c r="U5" t="n">
-        <v>160.2435925087147</v>
+        <v>160.2435925087123</v>
       </c>
       <c r="V5" t="n">
-        <v>160.2435925087147</v>
+        <v>160.2435925087123</v>
       </c>
       <c r="W5" t="n">
-        <v>159.428541960152</v>
+        <v>160.2435925087123</v>
       </c>
       <c r="X5" t="n">
-        <v>144.3264825798668</v>
+        <v>149.2425738676335</v>
       </c>
       <c r="Y5" t="n">
-        <v>140.0807629199243</v>
+        <v>144.996854207691</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124.6015328416248</v>
+        <v>38.84693151726358</v>
       </c>
       <c r="C6" t="n">
-        <v>84.13597917780797</v>
+        <v>38.84693151726358</v>
       </c>
       <c r="D6" t="n">
-        <v>84.13597917780797</v>
+        <v>38.84693151726358</v>
       </c>
       <c r="E6" t="n">
-        <v>43.67042551399113</v>
+        <v>38.84693151726358</v>
       </c>
       <c r="F6" t="n">
-        <v>43.67042551399113</v>
+        <v>38.84693151726358</v>
       </c>
       <c r="G6" t="n">
-        <v>3.204871850174293</v>
+        <v>3.204871850174245</v>
       </c>
       <c r="H6" t="n">
-        <v>3.204871850174293</v>
+        <v>3.204871850174245</v>
       </c>
       <c r="I6" t="n">
-        <v>29.26854501063189</v>
+        <v>29.26854501063184</v>
       </c>
       <c r="J6" t="n">
-        <v>29.26854501063189</v>
+        <v>29.26854501063184</v>
       </c>
       <c r="K6" t="n">
-        <v>29.26854501063189</v>
+        <v>41.26272507099342</v>
       </c>
       <c r="L6" t="n">
-        <v>68.92883415653877</v>
+        <v>80.9230142168997</v>
       </c>
       <c r="M6" t="n">
-        <v>68.92883415653877</v>
+        <v>120.583303362806</v>
       </c>
       <c r="N6" t="n">
-        <v>80.92301421690094</v>
+        <v>120.583303362806</v>
       </c>
       <c r="O6" t="n">
-        <v>120.5833033628078</v>
+        <v>120.583303362806</v>
       </c>
       <c r="P6" t="n">
-        <v>120.5833033628078</v>
+        <v>120.583303362806</v>
       </c>
       <c r="Q6" t="n">
-        <v>160.2435925087147</v>
+        <v>120.583303362806</v>
       </c>
       <c r="R6" t="n">
-        <v>160.2435925087147</v>
+        <v>160.2435925087123</v>
       </c>
       <c r="S6" t="n">
-        <v>160.2435925087147</v>
+        <v>160.2435925087123</v>
       </c>
       <c r="T6" t="n">
-        <v>160.2435925087147</v>
+        <v>160.2435925087123</v>
       </c>
       <c r="U6" t="n">
-        <v>160.2435925087147</v>
+        <v>160.2435925087123</v>
       </c>
       <c r="V6" t="n">
-        <v>160.2435925087147</v>
+        <v>119.778038844896</v>
       </c>
       <c r="W6" t="n">
-        <v>160.2435925087147</v>
+        <v>119.778038844896</v>
       </c>
       <c r="X6" t="n">
-        <v>160.2435925087147</v>
+        <v>119.778038844896</v>
       </c>
       <c r="Y6" t="n">
-        <v>124.6015328416248</v>
+        <v>79.31248518107981</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.2435925087147</v>
+        <v>84.1359791778067</v>
       </c>
       <c r="C7" t="n">
-        <v>160.2435925087147</v>
+        <v>84.1359791778067</v>
       </c>
       <c r="D7" t="n">
-        <v>124.6015328416248</v>
+        <v>84.1359791778067</v>
       </c>
       <c r="E7" t="n">
-        <v>84.13597917780797</v>
+        <v>43.67042551399047</v>
       </c>
       <c r="F7" t="n">
-        <v>43.67042551399113</v>
+        <v>43.67042551399047</v>
       </c>
       <c r="G7" t="n">
-        <v>43.67042551399113</v>
+        <v>3.204871850174245</v>
       </c>
       <c r="H7" t="n">
-        <v>3.204871850174293</v>
+        <v>3.204871850174245</v>
       </c>
       <c r="I7" t="n">
-        <v>3.204871850174293</v>
+        <v>3.204871850174245</v>
       </c>
       <c r="J7" t="n">
-        <v>3.204871850174293</v>
+        <v>42.86516099608053</v>
       </c>
       <c r="K7" t="n">
-        <v>3.204871850174293</v>
+        <v>82.52545014198681</v>
       </c>
       <c r="L7" t="n">
-        <v>42.86516099608117</v>
+        <v>120.583303362806</v>
       </c>
       <c r="M7" t="n">
-        <v>82.52545014198805</v>
+        <v>120.583303362806</v>
       </c>
       <c r="N7" t="n">
-        <v>82.52545014198805</v>
+        <v>120.583303362806</v>
       </c>
       <c r="O7" t="n">
-        <v>82.52545014198805</v>
+        <v>120.583303362806</v>
       </c>
       <c r="P7" t="n">
-        <v>120.5833033628078</v>
+        <v>120.583303362806</v>
       </c>
       <c r="Q7" t="n">
-        <v>160.2435925087147</v>
+        <v>160.2435925087123</v>
       </c>
       <c r="R7" t="n">
-        <v>160.2435925087147</v>
+        <v>138.8257712140841</v>
       </c>
       <c r="S7" t="n">
-        <v>160.2435925087147</v>
+        <v>138.8257712140841</v>
       </c>
       <c r="T7" t="n">
-        <v>160.2435925087147</v>
+        <v>124.6015328416229</v>
       </c>
       <c r="U7" t="n">
-        <v>160.2435925087147</v>
+        <v>84.1359791778067</v>
       </c>
       <c r="V7" t="n">
-        <v>160.2435925087147</v>
+        <v>84.1359791778067</v>
       </c>
       <c r="W7" t="n">
-        <v>160.2435925087147</v>
+        <v>84.1359791778067</v>
       </c>
       <c r="X7" t="n">
-        <v>160.2435925087147</v>
+        <v>84.1359791778067</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.2435925087147</v>
+        <v>84.1359791778067</v>
       </c>
     </row>
     <row r="8">
@@ -4862,49 +4862,49 @@
         <v>165.2600121901094</v>
       </c>
       <c r="C9" t="n">
-        <v>127.8182329816055</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="D9" t="n">
-        <v>127.8182329816055</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E9" t="n">
-        <v>127.8182329816055</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F9" t="n">
-        <v>86.08590667097184</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>5.706527910441171</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J9" t="n">
-        <v>12.29595456866669</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K9" t="n">
-        <v>23.55833427601031</v>
+        <v>71.1588637208333</v>
       </c>
       <c r="L9" t="n">
-        <v>38.70199365651513</v>
+        <v>86.30252310133811</v>
       </c>
       <c r="M9" t="n">
-        <v>79.6038466735672</v>
+        <v>103.9744593181195</v>
       </c>
       <c r="N9" t="n">
-        <v>97.74350645751944</v>
+        <v>122.1141191020718</v>
       </c>
       <c r="O9" t="n">
-        <v>114.3377512896424</v>
+        <v>138.7083639341947</v>
       </c>
       <c r="P9" t="n">
-        <v>127.656095741888</v>
+        <v>152.0267083864403</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.5590563036537</v>
+        <v>160.929668948206</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.76985286506957</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="C10" t="n">
-        <v>86.76985286506957</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="D10" t="n">
-        <v>86.76985286506957</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="E10" t="n">
-        <v>86.76985286506957</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="F10" t="n">
         <v>86.76985286506957</v>
       </c>
       <c r="G10" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H10" t="n">
         <v>45.03752655443588</v>
@@ -4968,46 +4968,46 @@
         <v>14.23261768427069</v>
       </c>
       <c r="L10" t="n">
-        <v>30.58622802477563</v>
+        <v>55.13447070132276</v>
       </c>
       <c r="M10" t="n">
-        <v>71.4880810418277</v>
+        <v>64.3002759708659</v>
       </c>
       <c r="N10" t="n">
-        <v>112.3899340588798</v>
+        <v>73.24813887768141</v>
       </c>
       <c r="O10" t="n">
-        <v>153.2917870759318</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P10" t="n">
-        <v>160.3637509630746</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>165.2600121901094</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="U10" t="n">
-        <v>165.2600121901094</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="V10" t="n">
-        <v>165.2600121901094</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="W10" t="n">
-        <v>165.2600121901094</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="X10" t="n">
-        <v>128.5021791757032</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.76985286506957</v>
+        <v>104.7923756428305</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1952.04145374739</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C11" t="n">
-        <v>1513.898980930813</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D11" t="n">
-        <v>1077.989196105258</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E11" t="n">
-        <v>644.2144512635527</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F11" t="n">
-        <v>644.2144512635527</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
         <v>316.9281030050443</v>
@@ -5038,25 +5038,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
         <v>2043.069798152528</v>
@@ -5074,19 +5074,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>1333.78448131411</v>
       </c>
       <c r="X11" t="n">
-        <v>2360.327577447737</v>
+        <v>914.642017893421</v>
       </c>
       <c r="Y11" t="n">
-        <v>1952.04145374739</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="12">
@@ -5111,31 +5111,31 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>550.3874362516888</v>
+        <v>730.9745012407179</v>
       </c>
       <c r="C13" t="n">
-        <v>377.8257247349136</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="D13" t="n">
-        <v>211.9477319364363</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E13" t="n">
-        <v>211.9477319364363</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F13" t="n">
         <v>211.9477319364363</v>
@@ -5199,25 +5199,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>413.3628026016838</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M13" t="n">
-        <v>970.0968922186603</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T13" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>1954.586457855462</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774551</v>
+        <v>1667.630949725893</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1395.604545312184</v>
       </c>
       <c r="X13" t="n">
-        <v>890.893515694255</v>
+        <v>1150.212790645597</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.206054970676</v>
+        <v>922.7931199597051</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1782.900983623584</v>
+        <v>852.7315322122766</v>
       </c>
       <c r="C14" t="n">
-        <v>1344.758510807007</v>
+        <v>852.7315322122766</v>
       </c>
       <c r="D14" t="n">
-        <v>908.8487259814518</v>
+        <v>852.7315322122766</v>
       </c>
       <c r="E14" t="n">
-        <v>475.073981139747</v>
+        <v>852.7315322122766</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U14" t="n">
-        <v>2202.043447044273</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V14" t="n">
-        <v>2202.043447044273</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W14" t="n">
-        <v>2202.043447044273</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="X14" t="n">
-        <v>1782.900983623584</v>
+        <v>1279.031102697184</v>
       </c>
       <c r="Y14" t="n">
-        <v>1782.900983623584</v>
+        <v>1279.031102697184</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
         <v>341.0245550495863</v>
@@ -5351,22 +5351,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,55 +5412,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>977.4615289265248</v>
+        <v>896.8524940391951</v>
       </c>
       <c r="C16" t="n">
-        <v>804.8998174097497</v>
+        <v>724.29078252242</v>
       </c>
       <c r="D16" t="n">
-        <v>639.0218246112725</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E16" t="n">
-        <v>469.2638208620097</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F16" t="n">
-        <v>292.5567668237659</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G16" t="n">
-        <v>127.8155864362843</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
         <v>2215.901038951971</v>
@@ -5472,16 +5472,16 @@
         <v>1973.653814855378</v>
       </c>
       <c r="V16" t="n">
-        <v>1686.698306725808</v>
+        <v>1833.50894252437</v>
       </c>
       <c r="W16" t="n">
-        <v>1414.6719023121</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X16" t="n">
-        <v>1169.280147645512</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y16" t="n">
-        <v>1169.280147645512</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>874.5766724602698</v>
+        <v>1186.612632672305</v>
       </c>
       <c r="C17" t="n">
-        <v>874.5766724602698</v>
+        <v>1186.612632672305</v>
       </c>
       <c r="D17" t="n">
-        <v>874.5766724602698</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E17" t="n">
-        <v>874.5766724602698</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F17" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895473</v>
@@ -5518,7 +5518,7 @@
         <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
         <v>805.4408022867025</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1999.754210961618</v>
       </c>
       <c r="V17" t="n">
-        <v>2106.860714170272</v>
+        <v>1999.754210961618</v>
       </c>
       <c r="W17" t="n">
-        <v>1702.005259581306</v>
+        <v>1594.898756372651</v>
       </c>
       <c r="X17" t="n">
-        <v>1282.862796160616</v>
+        <v>1594.898756372651</v>
       </c>
       <c r="Y17" t="n">
-        <v>874.5766724602698</v>
+        <v>1186.612632672305</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5585,31 +5585,31 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043085</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L18" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1029.196554659879</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C19" t="n">
-        <v>856.6348431431041</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D19" t="n">
-        <v>690.7568503446269</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E19" t="n">
-        <v>520.9988465953642</v>
+        <v>273.7620495191038</v>
       </c>
       <c r="F19" t="n">
-        <v>344.2917925571204</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="G19" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
         <v>47.20655154895473</v>
@@ -5673,22 +5673,22 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.33113894078</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M19" t="n">
-        <v>1236.93553127931</v>
+        <v>897.9345369632205</v>
       </c>
       <c r="N19" t="n">
-        <v>1364.434443083199</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P19" t="n">
         <v>2105.896438675981</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>2067.350120093185</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U19" t="n">
-        <v>1788.963488141928</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V19" t="n">
-        <v>1502.007980012359</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W19" t="n">
-        <v>1502.007980012359</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X19" t="n">
-        <v>1256.616225345771</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.196554659879</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1934.028006962828</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C20" t="n">
-        <v>1495.885534146252</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D20" t="n">
-        <v>1059.975749320696</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>626.2010044789913</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>198.3335748881991</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
         <v>276.0532770435805</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X20" t="n">
-        <v>2360.327577447736</v>
+        <v>1941.185114027047</v>
       </c>
       <c r="Y20" t="n">
-        <v>2360.327577447736</v>
+        <v>1773.290769282936</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5825,7 +5825,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
         <v>81.42328772043084</v>
@@ -5840,7 +5840,7 @@
         <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.29078252242</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C22" t="n">
-        <v>724.29078252242</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D22" t="n">
-        <v>558.4127897239428</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E22" t="n">
-        <v>388.6547859746801</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F22" t="n">
-        <v>211.9477319364363</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>744.9929992049549</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M22" t="n">
-        <v>1329.174074623269</v>
+        <v>718.6204178572107</v>
       </c>
       <c r="N22" t="n">
-        <v>1898.931789584804</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O22" t="n">
-        <v>2016.697670932565</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P22" t="n">
         <v>2274.089213540313</v>
@@ -5934,28 +5934,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>2226.289371088421</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U22" t="n">
-        <v>1947.902739137164</v>
+        <v>2081.940945496479</v>
       </c>
       <c r="V22" t="n">
-        <v>1660.947231007595</v>
+        <v>1794.98543736691</v>
       </c>
       <c r="W22" t="n">
-        <v>1388.920826593886</v>
+        <v>1522.959032953201</v>
       </c>
       <c r="X22" t="n">
-        <v>1143.529071927299</v>
+        <v>1277.567278286614</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.1094012414071</v>
+        <v>1092.291841223631</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2166.201658626961</v>
+        <v>1367.699607398797</v>
       </c>
       <c r="C23" t="n">
-        <v>1728.059185810384</v>
+        <v>929.5571345822202</v>
       </c>
       <c r="D23" t="n">
-        <v>1292.149400984829</v>
+        <v>493.6473497566648</v>
       </c>
       <c r="E23" t="n">
-        <v>858.374656143124</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="F23" t="n">
-        <v>430.5072265523317</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="G23" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H23" t="n">
         <v>59.87260491495994</v>
@@ -5989,22 +5989,22 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J23" t="n">
-        <v>723.9740178625037</v>
+        <v>288.7193304095858</v>
       </c>
       <c r="K23" t="n">
-        <v>960.2456682417247</v>
+        <v>524.9909807888067</v>
       </c>
       <c r="L23" t="n">
-        <v>1253.361543105625</v>
+        <v>818.1068556527074</v>
       </c>
       <c r="M23" t="n">
-        <v>1595.737294002693</v>
+        <v>1144.254743821495</v>
       </c>
       <c r="N23" t="n">
-        <v>1927.16259597917</v>
+        <v>1475.680045797972</v>
       </c>
       <c r="O23" t="n">
-        <v>2240.118110520463</v>
+        <v>2216.603531620601</v>
       </c>
       <c r="P23" t="n">
         <v>2507.218401699732</v>
@@ -6016,25 +6016,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S23" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T23" t="n">
-        <v>2993.630245747997</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U23" t="n">
-        <v>2993.630245747997</v>
+        <v>2621.427765004741</v>
       </c>
       <c r="V23" t="n">
-        <v>2993.630245747997</v>
+        <v>2621.427765004741</v>
       </c>
       <c r="W23" t="n">
-        <v>2993.630245747997</v>
+        <v>2621.427765004741</v>
       </c>
       <c r="X23" t="n">
-        <v>2574.487782327308</v>
+        <v>2202.285301584051</v>
       </c>
       <c r="Y23" t="n">
-        <v>2166.201658626961</v>
+        <v>1793.999177883705</v>
       </c>
     </row>
     <row r="24">
@@ -6065,19 +6065,19 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I24" t="n">
-        <v>94.08934108643605</v>
+        <v>94.08934108643594</v>
       </c>
       <c r="J24" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K24" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L24" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M24" t="n">
-        <v>816.0537566647931</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N24" t="n">
         <v>1074.527417586113</v>
@@ -6147,25 +6147,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J25" t="n">
-        <v>122.9540426842108</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K25" t="n">
-        <v>219.7541432517691</v>
+        <v>302.1580543493911</v>
       </c>
       <c r="L25" t="n">
-        <v>761.8348266380279</v>
+        <v>844.2387377356501</v>
       </c>
       <c r="M25" t="n">
-        <v>1351.92308615747</v>
+        <v>1434.326997255093</v>
       </c>
       <c r="N25" t="n">
-        <v>1921.680801119005</v>
+        <v>2004.084712216627</v>
       </c>
       <c r="O25" t="n">
-        <v>2459.115931692548</v>
+        <v>2541.51984279017</v>
       </c>
       <c r="P25" t="n">
-        <v>2907.391881840573</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q25" t="n">
         <v>2977.159153071229</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>729.0968476915723</v>
+        <v>1592.87406210792</v>
       </c>
       <c r="C26" t="n">
-        <v>729.0968476915723</v>
+        <v>1592.87406210792</v>
       </c>
       <c r="D26" t="n">
-        <v>729.0968476915723</v>
+        <v>1156.964277282364</v>
       </c>
       <c r="E26" t="n">
-        <v>729.0968476915723</v>
+        <v>1156.964277282364</v>
       </c>
       <c r="F26" t="n">
         <v>729.0968476915723</v>
@@ -6229,22 +6229,22 @@
         <v>723.9740178625037</v>
       </c>
       <c r="K26" t="n">
-        <v>976.4735309700051</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L26" t="n">
-        <v>1269.589405833906</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M26" t="n">
-        <v>1595.737294002693</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N26" t="n">
-        <v>1927.16259597917</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O26" t="n">
-        <v>2240.118110520463</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P26" t="n">
-        <v>2507.218401699732</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q26" t="n">
         <v>2707.7995967108</v>
@@ -6256,22 +6256,22 @@
         <v>2953.163875962794</v>
       </c>
       <c r="T26" t="n">
-        <v>2741.392624431906</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U26" t="n">
-        <v>2482.32193295342</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="V26" t="n">
-        <v>2119.704982887247</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="W26" t="n">
-        <v>1714.84952829828</v>
+        <v>2846.602219713864</v>
       </c>
       <c r="X26" t="n">
-        <v>1295.707064877591</v>
+        <v>2427.459756293174</v>
       </c>
       <c r="Y26" t="n">
-        <v>887.4209411772441</v>
+        <v>2019.173632592828</v>
       </c>
     </row>
     <row r="27">
@@ -6305,7 +6305,7 @@
         <v>94.08934108643605</v>
       </c>
       <c r="J27" t="n">
-        <v>187.9826804329031</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K27" t="n">
         <v>348.4613524870733</v>
@@ -6375,7 +6375,7 @@
         <v>420.0531324868775</v>
       </c>
       <c r="G28" t="n">
-        <v>255.311952099396</v>
+        <v>255.3119520993958</v>
       </c>
       <c r="H28" t="n">
         <v>122.9678914787119</v>
@@ -6390,19 +6390,19 @@
         <v>576.9165089205267</v>
       </c>
       <c r="L28" t="n">
-        <v>1118.997192306786</v>
+        <v>1053.125918954609</v>
       </c>
       <c r="M28" t="n">
-        <v>1709.085451826228</v>
+        <v>1183.730311293139</v>
       </c>
       <c r="N28" t="n">
-        <v>2278.843166787762</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O28" t="n">
-        <v>2459.115931692548</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P28" t="n">
-        <v>2907.391881840573</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q28" t="n">
         <v>2977.159153071229</v>
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1759.159943484557</v>
+        <v>1761.294983468407</v>
       </c>
       <c r="C29" t="n">
-        <v>1321.01747066798</v>
+        <v>1323.152510651831</v>
       </c>
       <c r="D29" t="n">
-        <v>1321.01747066798</v>
+        <v>887.2427258262751</v>
       </c>
       <c r="E29" t="n">
         <v>887.2427258262751</v>
@@ -6496,19 +6496,19 @@
         <v>2953.163875962794</v>
       </c>
       <c r="U29" t="n">
-        <v>2945.774811560386</v>
+        <v>2694.093184484308</v>
       </c>
       <c r="V29" t="n">
-        <v>2583.157861494213</v>
+        <v>2694.093184484308</v>
       </c>
       <c r="W29" t="n">
-        <v>2178.302406905246</v>
+        <v>2289.237729895342</v>
       </c>
       <c r="X29" t="n">
-        <v>1759.159943484557</v>
+        <v>2289.237729895342</v>
       </c>
       <c r="Y29" t="n">
-        <v>1759.159943484557</v>
+        <v>1880.951606194995</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I30" t="n">
-        <v>94.08934108643594</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J30" t="n">
         <v>187.9826804329031</v>
@@ -6627,19 +6627,19 @@
         <v>576.9165089205267</v>
       </c>
       <c r="L31" t="n">
-        <v>700.7873105388245</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M31" t="n">
-        <v>1290.875570058267</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N31" t="n">
-        <v>1860.633285019801</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O31" t="n">
-        <v>2398.068415593345</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P31" t="n">
-        <v>2846.34436574137</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q31" t="n">
         <v>2977.159153071229</v>
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1361.792292147884</v>
+        <v>1795.567036989589</v>
       </c>
       <c r="C32" t="n">
-        <v>923.6498193313078</v>
+        <v>1357.424564173013</v>
       </c>
       <c r="D32" t="n">
-        <v>487.7400345057522</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E32" t="n">
         <v>487.7400345057522</v>
@@ -6730,22 +6730,22 @@
         <v>2953.163875962794</v>
       </c>
       <c r="T32" t="n">
-        <v>2741.392624431906</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U32" t="n">
-        <v>2482.32193295342</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="V32" t="n">
-        <v>2207.234326053481</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="W32" t="n">
-        <v>2207.234326053481</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="X32" t="n">
-        <v>1788.091862632792</v>
+        <v>2534.021412542105</v>
       </c>
       <c r="Y32" t="n">
-        <v>1788.091862632792</v>
+        <v>2221.866607474497</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1859.550434580796</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C33" t="n">
-        <v>1753.093973417439</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D33" t="n">
-        <v>1658.003684563992</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E33" t="n">
-        <v>1563.883269890945</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F33" t="n">
-        <v>1480.499431507107</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G33" t="n">
-        <v>1396.128331096764</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H33" t="n">
-        <v>1364.18568106336</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I33" t="n">
-        <v>1398.402417234837</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J33" t="n">
-        <v>1492.295756581304</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K33" t="n">
-        <v>1652.774428635474</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L33" t="n">
-        <v>1868.557807510496</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M33" t="n">
-        <v>2120.366832813194</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N33" t="n">
-        <v>2378.840493734514</v>
+        <v>1074.527417586113</v>
       </c>
       <c r="O33" t="n">
-        <v>2615.293396549044</v>
+        <v>1310.980320400644</v>
       </c>
       <c r="P33" t="n">
-        <v>2805.06769711385</v>
+        <v>1500.75462096545</v>
       </c>
       <c r="Q33" t="n">
-        <v>2931.926791322084</v>
+        <v>1627.613715173684</v>
       </c>
       <c r="R33" t="n">
-        <v>2993.630245747997</v>
+        <v>1689.317169599597</v>
       </c>
       <c r="S33" t="n">
-        <v>2949.009215147731</v>
+        <v>1644.696138999331</v>
       </c>
       <c r="T33" t="n">
-        <v>2822.917660023384</v>
+        <v>1518.604583874984</v>
       </c>
       <c r="U33" t="n">
-        <v>2646.647822847265</v>
+        <v>1342.334746698865</v>
       </c>
       <c r="V33" t="n">
-        <v>2447.530304909264</v>
+        <v>1143.217228760864</v>
       </c>
       <c r="W33" t="n">
-        <v>2262.207550642459</v>
+        <v>957.8944744940584</v>
       </c>
       <c r="X33" t="n">
-        <v>2107.340114881339</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y33" t="n">
-        <v>1980.854335660559</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="34">
@@ -6858,25 +6858,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J34" t="n">
-        <v>118.7782686171431</v>
+        <v>139.4866804296565</v>
       </c>
       <c r="K34" t="n">
-        <v>490.3368237558368</v>
+        <v>511.0452355683503</v>
       </c>
       <c r="L34" t="n">
-        <v>1032.417507142096</v>
+        <v>1053.125918954609</v>
       </c>
       <c r="M34" t="n">
-        <v>1622.505766661538</v>
+        <v>1183.730311293139</v>
       </c>
       <c r="N34" t="n">
-        <v>2192.263481623072</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O34" t="n">
-        <v>2729.698612196616</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P34" t="n">
-        <v>2907.391881840573</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q34" t="n">
         <v>2977.159153071229</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1782.900983623584</v>
+        <v>1054.899940253109</v>
       </c>
       <c r="C35" t="n">
-        <v>1344.758510807007</v>
+        <v>1054.899940253109</v>
       </c>
       <c r="D35" t="n">
-        <v>908.8487259814518</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E35" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
         <v>47.20655154895473</v>
@@ -6937,13 +6937,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6967,22 +6967,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W35" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X35" t="n">
-        <v>1941.185114027047</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="Y35" t="n">
-        <v>1941.185114027047</v>
+        <v>1481.199510738016</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
         <v>341.0245550495863</v>
@@ -7007,13 +7007,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7022,10 +7022,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.291841223631</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C37" t="n">
-        <v>919.7301297068562</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D37" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E37" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895473</v>
@@ -7101,13 +7101,13 @@
         <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M37" t="n">
-        <v>1329.17407462327</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N37" t="n">
-        <v>1898.931789584804</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O37" t="n">
         <v>2173.32015736263</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.267182904121</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V37" t="n">
-        <v>1591.737916323232</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W37" t="n">
-        <v>1319.711511909523</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X37" t="n">
-        <v>1319.711511909523</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y37" t="n">
-        <v>1092.291841223631</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="38">
@@ -7210,16 +7210,16 @@
         <v>2319.861207662534</v>
       </c>
       <c r="V38" t="n">
-        <v>2319.861207662534</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W38" t="n">
-        <v>2319.861207662534</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X38" t="n">
-        <v>1900.718744241844</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y38" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>1119.791305117177</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H39" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M39" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N39" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R39" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S39" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T39" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U39" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V39" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1029.196554659879</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C40" t="n">
-        <v>856.6348431431041</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D40" t="n">
-        <v>690.7568503446269</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E40" t="n">
-        <v>520.9988465953642</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F40" t="n">
-        <v>344.2917925571204</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G40" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H40" t="n">
         <v>47.20655154895473</v>
@@ -7332,25 +7332,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092375</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827552</v>
+        <v>997.5438780199985</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789086</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540313</v>
+        <v>2205.505779732759</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7368,16 +7368,16 @@
         <v>1973.653814855378</v>
       </c>
       <c r="V40" t="n">
-        <v>1965.853003145054</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W40" t="n">
-        <v>1693.826598731346</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.434844064758</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y40" t="n">
-        <v>1221.015173378866</v>
+        <v>941.8604769596202</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1081.54685999802</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="C41" t="n">
-        <v>643.4043871814436</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="D41" t="n">
-        <v>207.494602355888</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E41" t="n">
-        <v>207.494602355888</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F41" t="n">
-        <v>207.494602355888</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
@@ -7411,16 +7411,16 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
@@ -7429,7 +7429,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7447,16 +7447,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>1486.402314586987</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W41" t="n">
-        <v>1081.54685999802</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X41" t="n">
-        <v>1081.54685999802</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y41" t="n">
-        <v>1081.54685999802</v>
+        <v>1604.869847922449</v>
       </c>
     </row>
     <row r="42">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>732.1113136517137</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C43" t="n">
-        <v>559.5496021349386</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D43" t="n">
         <v>393.6716093364613</v>
@@ -7572,22 +7572,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>320.0013704257355</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L43" t="n">
-        <v>862.0820538119945</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M43" t="n">
-        <v>992.6864461505238</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N43" t="n">
-        <v>1120.185357954413</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527957</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675982</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7599,22 +7599,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>2234.109902217715</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1955.723270266458</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1668.767762136888</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W43" t="n">
-        <v>1396.74135772318</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X43" t="n">
-        <v>1151.349603056593</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.9299323707007</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>713.7271060828765</v>
+        <v>1474.419173756937</v>
       </c>
       <c r="C44" t="n">
-        <v>713.7271060828765</v>
+        <v>1036.276700940361</v>
       </c>
       <c r="D44" t="n">
-        <v>713.7271060828765</v>
+        <v>1036.276700940361</v>
       </c>
       <c r="E44" t="n">
-        <v>713.7271060828765</v>
+        <v>602.5019560986557</v>
       </c>
       <c r="F44" t="n">
-        <v>713.7271060828765</v>
+        <v>174.6345265078634</v>
       </c>
       <c r="G44" t="n">
-        <v>314.2244147623537</v>
+        <v>174.6345265078634</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>1889.485634438363</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V44" t="n">
-        <v>1526.86868437219</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W44" t="n">
-        <v>1122.013229783223</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X44" t="n">
-        <v>1122.013229783223</v>
+        <v>1900.718744241845</v>
       </c>
       <c r="Y44" t="n">
-        <v>713.7271060828765</v>
+        <v>1900.718744241845</v>
       </c>
     </row>
     <row r="45">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.081764785142</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="C46" t="n">
-        <v>443.520053268367</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D46" t="n">
         <v>393.6716093364613</v>
@@ -7809,22 +7809,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092378</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041292</v>
+        <v>751.3682208539258</v>
       </c>
     </row>
   </sheetData>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>40.06089812717867</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="K5" t="n">
-        <v>40.06089812717867</v>
+        <v>40.06089812717807</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>38.44227598062542</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8233,13 +8233,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>40.06089812717866</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>38.44227598062602</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>12.11533339430462</v>
       </c>
       <c r="L6" t="n">
-        <v>40.06089812717866</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="N6" t="n">
-        <v>12.11533339430522</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>40.06089812717866</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>40.06089812717866</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,16 +8373,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>40.06089812717807</v>
       </c>
       <c r="L7" t="n">
-        <v>40.06089812717867</v>
+        <v>38.44227598062542</v>
       </c>
       <c r="M7" t="n">
-        <v>40.06089812717867</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>38.44227598062602</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>40.06089812717866</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>23.46456242451583</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>24.61678044904275</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8616,22 +8616,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>7.737745354913052</v>
+        <v>32.53395007869804</v>
       </c>
       <c r="M10" t="n">
-        <v>32.05661388637266</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>32.27675768710763</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>32.96672057477704</v>
+        <v>1.962997606364723</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>34.17160518172662</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M13" t="n">
-        <v>430.434037654997</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464598</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>444.9969971592899</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9564,19 +9564,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371566</v>
+        <v>263.8716243249366</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>158.2045317475395</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,16 +9646,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>16.39178053361661</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>432.2908800821581</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>23.75209989885025</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>4.217953603098778</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>97.88909899837154</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>16.3917805336165</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10038,22 +10038,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>355.8975842583684</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>63.13826621921589</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10275,13 +10275,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.66415767596345</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>20.91758768940753</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10515,7 +10515,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10524,10 +10524,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>77.7012257235092</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10749,16 +10749,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371571</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>158.2045317475392</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10980,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>156.7304232042864</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>118.2717723303429</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
@@ -11238,7 +11238,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22795,7 +22795,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.866930374889108</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22846,10 +22846,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>4.060030331814458</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>71.49417963139422</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>207.9741511311678</v>
       </c>
     </row>
     <row r="12">
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>113.7438090910207</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>77.94488786268951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>288.6510247870419</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>99.7786954642726</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>51.217675476021</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>145.3425294405764</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,19 +23737,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>149.2275968453736</v>
       </c>
       <c r="V17" t="n">
-        <v>108.0585859208222</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>113.7438090910206</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>92.75934218542955</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>245.8919113014657</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24034,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>237.9878611666731</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>107.1269275599059</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>41.72279128668012</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>295.6037249278482</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>137.7147737308071</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>265.2957222292436</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>295.3108603566359</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>303.576518280737</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>249.1648108053176</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>86.65404973457197</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>95.17000544641132</v>
       </c>
     </row>
     <row r="33">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>265.3352856806299</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>258.8788939607931</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25207,10 +25207,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25219,10 +25219,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>114.8692533779061</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>181.5919791331937</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>249.4367335470104</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>287.5636794512652</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>145.3425294405765</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
         <v>62.46433369811443</v>
@@ -25608,7 +25608,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>276.3631494550537</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>236.8224941084536</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>162.4953398999388</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>114.8692533779057</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>2.676651360263747</v>
+        <v>140.870640732209</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>87.01543208710595</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>557838.6271657099</v>
+        <v>557838.6271657096</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>335829.7289342704</v>
+        <v>335829.7289342705</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>335829.7289342705</v>
+        <v>335829.7289342704</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>335829.7289342704</v>
+        <v>335829.7289342705</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>335829.7289342704</v>
+        <v>335829.7289342705</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>335829.7289342706</v>
+        <v>335829.7289342705</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>335829.7289342706</v>
+        <v>335829.7289342705</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379453.858845099</v>
+        <v>379453.8588450989</v>
       </c>
       <c r="C2" t="n">
-        <v>388425.9363686114</v>
+        <v>388425.9363686111</v>
       </c>
       <c r="D2" t="n">
         <v>388706.8069205462</v>
@@ -26325,19 +26325,19 @@
         <v>228081.478386185</v>
       </c>
       <c r="F2" t="n">
-        <v>228081.4783861851</v>
+        <v>228081.478386185</v>
       </c>
       <c r="G2" t="n">
         <v>228081.4783861851</v>
       </c>
       <c r="H2" t="n">
-        <v>228081.478386185</v>
+        <v>228081.4783861851</v>
       </c>
       <c r="I2" t="n">
         <v>274231.3343724199</v>
       </c>
       <c r="J2" t="n">
-        <v>274231.3343724199</v>
+        <v>274231.33437242</v>
       </c>
       <c r="K2" t="n">
         <v>274231.3343724199</v>
@@ -26352,7 +26352,7 @@
         <v>228081.478386185</v>
       </c>
       <c r="O2" t="n">
-        <v>228081.4783861851</v>
+        <v>228081.4783861852</v>
       </c>
       <c r="P2" t="n">
         <v>228081.4783861852</v>
@@ -26368,10 +26368,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>12942.50183972373</v>
+        <v>12942.50183972353</v>
       </c>
       <c r="D3" t="n">
-        <v>28439.77775951027</v>
+        <v>28439.77775951046</v>
       </c>
       <c r="E3" t="n">
         <v>512485.5095559817</v>
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42102.11971426842</v>
+        <v>42102.11971426838</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>10310.39322919572</v>
+        <v>10310.39322919556</v>
       </c>
       <c r="L3" t="n">
-        <v>317.402668395968</v>
+        <v>317.4026683961208</v>
       </c>
       <c r="M3" t="n">
         <v>97299.51484534089</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
         <v>301558.0882274226</v>
       </c>
       <c r="D4" t="n">
-        <v>294007.725299157</v>
+        <v>294007.7252991569</v>
       </c>
       <c r="E4" t="n">
-        <v>13837.4771430886</v>
+        <v>13837.47714308859</v>
       </c>
       <c r="F4" t="n">
-        <v>13837.4771430886</v>
+        <v>13837.47714308859</v>
       </c>
       <c r="G4" t="n">
         <v>13837.4771430886</v>
@@ -26441,10 +26441,10 @@
         <v>38290.18362809525</v>
       </c>
       <c r="J4" t="n">
-        <v>38290.18362809524</v>
+        <v>38290.18362809526</v>
       </c>
       <c r="K4" t="n">
-        <v>38290.18362809525</v>
+        <v>38290.18362809526</v>
       </c>
       <c r="L4" t="n">
         <v>38290.18362809525</v>
@@ -26472,7 +26472,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>36063.30260613246</v>
+        <v>36063.30260613243</v>
       </c>
       <c r="D5" t="n">
         <v>36853.56981021012</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47095.54253326618</v>
+        <v>47063.63581576444</v>
       </c>
       <c r="C6" t="n">
-        <v>37862.04369533254</v>
+        <v>37861.07517618797</v>
       </c>
       <c r="D6" t="n">
-        <v>29405.73405166886</v>
+        <v>29405.73405166875</v>
       </c>
       <c r="E6" t="n">
-        <v>-344292.5895225231</v>
+        <v>-344846.4699657451</v>
       </c>
       <c r="F6" t="n">
-        <v>168192.9200334587</v>
+        <v>167639.0395902367</v>
       </c>
       <c r="G6" t="n">
-        <v>168192.9200334587</v>
+        <v>167639.0395902368</v>
       </c>
       <c r="H6" t="n">
-        <v>168192.9200334586</v>
+        <v>167639.0395902368</v>
       </c>
       <c r="I6" t="n">
-        <v>138161.7492622545</v>
+        <v>137767.0062534679</v>
       </c>
       <c r="J6" t="n">
-        <v>180263.8689765229</v>
+        <v>179869.1259677363</v>
       </c>
       <c r="K6" t="n">
-        <v>169953.4757473272</v>
+        <v>169558.7327385407</v>
       </c>
       <c r="L6" t="n">
-        <v>179946.466308127</v>
+        <v>179551.7232993402</v>
       </c>
       <c r="M6" t="n">
-        <v>70893.40518811782</v>
+        <v>70339.52474489588</v>
       </c>
       <c r="N6" t="n">
-        <v>168192.9200334586</v>
+        <v>167639.0395902367</v>
       </c>
       <c r="O6" t="n">
-        <v>168192.9200334587</v>
+        <v>167639.0395902368</v>
       </c>
       <c r="P6" t="n">
-        <v>168192.9200334587</v>
+        <v>167639.0395902368</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.06089812717867</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="D4" t="n">
         <v>41.31500304752735</v>
@@ -26801,13 +26801,13 @@
         <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
         <v>748.4075614369992</v>
@@ -27014,10 +27014,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.06089812717867</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="D4" t="n">
-        <v>1.254104920348681</v>
+        <v>1.254104920349285</v>
       </c>
       <c r="E4" t="n">
         <v>548.7668913144067</v>
@@ -27032,16 +27032,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>158.3256670750652</v>
+        <v>158.3256670750651</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40.06089812717867</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="L4" t="n">
-        <v>1.254104920348681</v>
+        <v>1.254104920349285</v>
       </c>
       <c r="M4" t="n">
         <v>390.4412242393416</v>
@@ -27260,10 +27260,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40.06089812717867</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="L4" t="n">
-        <v>1.254104920348681</v>
+        <v>1.254104920349285</v>
       </c>
       <c r="M4" t="n">
         <v>548.7668913144067</v>
@@ -27694,22 +27694,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120.0908620689655</v>
+        <v>80.02996394178746</v>
       </c>
       <c r="C6" t="n">
-        <v>65.33099842454547</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
         <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
-        <v>53.11831239913715</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
         <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>44.47034070929929</v>
+        <v>49.24559976605951</v>
       </c>
       <c r="H6" t="n">
         <v>41.31829566194965</v>
@@ -27754,7 +27754,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V6" t="n">
-        <v>197.1263427586206</v>
+        <v>157.0654446314426</v>
       </c>
       <c r="W6" t="n">
         <v>183.4695267241379</v>
@@ -27763,7 +27763,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
-        <v>89.93528235815246</v>
+        <v>85.16002330139335</v>
       </c>
     </row>
     <row r="7">
@@ -27779,19 +27779,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>128.9335738000736</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>127.9995255845915</v>
+        <v>127.999525584592</v>
       </c>
       <c r="F7" t="n">
-        <v>134.8790853706827</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>123.8744640972525</v>
       </c>
       <c r="H7" t="n">
-        <v>98.44225443935056</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>229.3386559685927</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>235.5877726122476</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -27934,22 +27934,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>68.3245351353053</v>
+        <v>69.00164186746204</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F9" t="n">
         <v>41.23499695247265</v>
       </c>
       <c r="G9" t="n">
-        <v>43.14578572036749</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>157.097685947878</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8762992535017</v>
+        <v>122.5612962059744</v>
       </c>
       <c r="H10" t="n">
-        <v>96.66302601383404</v>
+        <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
-        <v>44.68216206888224</v>
+        <v>44.68216206888225</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
-        <v>243.1682919906331</v>
+        <v>201.8532889431057</v>
       </c>
       <c r="U10" t="n">
         <v>275.6454491228296</v>
@@ -28076,10 +28076,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>206.5475824356596</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>183.8304709315055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -32010,7 +32010,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
         <v>316.116681354841</v>
@@ -32019,19 +32019,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T14" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -32101,7 +32101,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
@@ -32110,7 +32110,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
         <v>97.77787936116989</v>
@@ -32168,16 +32168,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
@@ -32189,7 +32189,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -32247,7 +32247,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.116681354841</v>
@@ -32256,19 +32256,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916796</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -32338,7 +32338,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
@@ -32347,7 +32347,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
         <v>97.77787936116989</v>
@@ -32405,16 +32405,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
@@ -32426,7 +32426,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233624</v>
@@ -33025,10 +33025,10 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562328</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
@@ -33499,7 +33499,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33517,7 +33517,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917227</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
@@ -33751,7 +33751,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917233</v>
@@ -34225,7 +34225,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917233</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>40.06089812717867</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="K5" t="n">
-        <v>40.06089812717867</v>
+        <v>40.06089812717807</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>38.44227598062542</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34953,13 +34953,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>40.06089812717866</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>38.44227598062602</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>12.11533339430462</v>
       </c>
       <c r="L6" t="n">
-        <v>40.06089812717866</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="N6" t="n">
-        <v>12.11533339430522</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>40.06089812717866</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>40.06089812717866</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>40.06089812717807</v>
       </c>
       <c r="L7" t="n">
-        <v>40.06089812717867</v>
+        <v>38.44227598062542</v>
       </c>
       <c r="M7" t="n">
-        <v>40.06089812717867</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -35111,10 +35111,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>38.44227598062602</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>40.06089812717866</v>
+        <v>40.06089812717806</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35248,19 +35248,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.425583501655538</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J9" t="n">
-        <v>6.655986523460121</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K9" t="n">
-        <v>11.37614111852891</v>
+        <v>33.13054140576667</v>
       </c>
       <c r="L9" t="n">
         <v>15.29662563687356</v>
       </c>
       <c r="M9" t="n">
-        <v>41.31500304752736</v>
+        <v>17.85044062301152</v>
       </c>
       <c r="N9" t="n">
         <v>18.32288867065883</v>
@@ -35269,13 +35269,13 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408647</v>
+        <v>13.45287318408649</v>
       </c>
       <c r="Q9" t="n">
         <v>8.99288945632901</v>
       </c>
       <c r="R9" t="n">
-        <v>28.99086453177344</v>
+        <v>4.37408408273069</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35336,22 +35336,22 @@
         <v>6.862043349739427</v>
       </c>
       <c r="L10" t="n">
-        <v>16.51879832374236</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752735</v>
+        <v>9.258389161154682</v>
       </c>
       <c r="N10" t="n">
+        <v>9.038245360419708</v>
+      </c>
+      <c r="O10" t="n">
+        <v>10.31128007911501</v>
+      </c>
+      <c r="P10" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P10" t="n">
-        <v>7.143397865800722</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4.945718411146316</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35424,10 +35424,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916793</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M13" t="n">
-        <v>562.3576662797743</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N13" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35670,7 +35670,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916783</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712369</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916796</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>576.9206257840672</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O19" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -36135,10 +36135,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36208,10 +36208,10 @@
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36281,22 +36281,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619339</v>
+        <v>395.7952529497138</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>259.9914571795427</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
         <v>70.4719911420766</v>
@@ -36357,25 +36357,25 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>598.8903663599629</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>345.8340918152198</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>748.4075614369992</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>293.5503738173038</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916768</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36457,7 +36457,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233622</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.71862400934436</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M25" t="n">
-        <v>596.0487469893359</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N25" t="n">
         <v>575.5128433954892</v>
@@ -36533,10 +36533,10 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485105</v>
+        <v>199.676024430375</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36597,10 +36597,10 @@
         <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
-        <v>255.0500132399003</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36609,13 +36609,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R26" t="n">
         <v>288.7178273103004</v>
@@ -36673,10 +36673,10 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562328</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
@@ -36758,22 +36758,22 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447059</v>
+        <v>481.0196060950329</v>
       </c>
       <c r="M28" t="n">
-        <v>596.048746989336</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>182.0937019240259</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
         <v>452.8039900485105</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916768</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36995,22 +36995,22 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M31" t="n">
-        <v>596.048746989336</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485101</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q31" t="n">
-        <v>132.1361488180401</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37162,16 +37162,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917227</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>80.4182580956531</v>
       </c>
       <c r="K34" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>596.048746989336</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>575.5128433954892</v>
@@ -37244,10 +37244,10 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>179.4881511555127</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37305,7 +37305,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37317,7 +37317,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
@@ -37396,7 +37396,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
@@ -37469,16 +37469,16 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>547.5562458447062</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N37" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>277.1599674523491</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742734</v>
@@ -37642,10 +37642,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L40" t="n">
-        <v>281.852445040951</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
@@ -37721,7 +37721,7 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>139.7481869072826</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37779,7 +37779,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125712</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
@@ -37797,13 +37797,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>216.0496516915127</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
         <v>547.5562458447062</v>
@@ -37958,7 +37958,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38177,25 +38177,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>281.8524450409513</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
